--- a/data/long_bre/P18_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_6-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 7,15</t>
+          <t>-5,57; 6,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 15,06</t>
+          <t>1,47; 15,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 5,47</t>
+          <t>-6,29; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 36,35</t>
+          <t>-8,63; 6,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 59,04</t>
+          <t>-4,34; 9,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 20,86</t>
+          <t>-20,75; 34,04</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 60,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-19,16; 19,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-24,3; 23,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,73; 43,19</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,94</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-16,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,72%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -2,07</t>
+          <t>-14,76; -1,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 3,22</t>
+          <t>-12,02; 3,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 7,34</t>
+          <t>-6,13; 8,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,02; -4,61</t>
+          <t>-10,26; 7,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 7,33</t>
+          <t>-13,22; 3,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 17,73</t>
+          <t>-28,7; -3,47</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,17; 8,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 20,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 21,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-26,95; 8,52</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-16,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 14,45</t>
+          <t>1,46; 13,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 1,84</t>
+          <t>-11,74; 1,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,86</t>
+          <t>-7,25; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 58,96</t>
+          <t>-5,54; 9,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 8,85</t>
+          <t>-6,54; 8,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 23,1</t>
+          <t>4,59; 55,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-37,84; 8,56</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 23,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,84; 40,19</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-18,84; 32,41</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 14,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 4,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 70,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 56,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 17,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,59%</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,21%</t>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37,25%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; -0,01</t>
+          <t>-0,31; 12,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 0,97</t>
+          <t>-2,63; 12,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 1,35</t>
+          <t>-7,61; 6,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 0,32</t>
+          <t>-8,68; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 2,48</t>
+          <t>-4,32; 20,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 2,86</t>
+          <t>-2,18; 71,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 49,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 24,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 34,54</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; 138,05</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-21,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,45%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,38%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-7,25%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 9,74</t>
+          <t>-17,67; -2,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 7,62</t>
+          <t>-13,75; 2,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 12,57</t>
+          <t>-14,31; 1,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 30,36</t>
+          <t>-11,81; 5,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 38,05</t>
+          <t>-21,04; 13,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 73,29</t>
+          <t>-36,09; -5,61</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,59; 6,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,37; 3,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 15,57</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-37,45; 34,75</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-16,78%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 13,19</t>
+          <t>-4,54; 11,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 21,67</t>
+          <t>-6,31; 8,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 14,59</t>
+          <t>1,09; 12,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 62,58</t>
+          <t>-5,03; 10,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 95,99</t>
+          <t>-19,93; 9,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 70,7</t>
+          <t>-11,26; 35,96</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 41,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,63; 71,06</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-17,91; 53,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-45,89; 36,98</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 17,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 10,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 59,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 11,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-25,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>36,96%</t>
+          <t>-16,12%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29,15%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-51,73%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 15,42</t>
+          <t>-17,0; 9,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 10,59</t>
+          <t>-5,74; 22,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 16,21</t>
+          <t>-11,39; 15,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 68,56</t>
+          <t>-45,52; -7,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 66,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 130,14</t>
+          <t>-47,94; 43,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 100,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-33,11; 79,35</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-74,6; -18,79</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-16,34%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,74</t>
+          <t>-10,07; 19,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,3</t>
+          <t>-22,15; 9,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,26</t>
+          <t>-22,47; 6,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 33,44</t>
+          <t>-9,91; 25,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,72; 45,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 12,24</t>
+          <t>-22,77; 76,89</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-39,38; 25,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-36,46; 10,95</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-23,56; 133,19</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,69%</t>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-10,38%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33,52%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>82,14%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -1,4</t>
+          <t>-22,35; 13,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 0,27</t>
+          <t>-15,95; 9,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,03</t>
+          <t>-4,44; 16,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -3,43</t>
+          <t>0,55; 31,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 4,24</t>
+          <t>-46,73; 48,88</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-51,91; 60,1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-22,06; 134,71</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 238,49</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,41%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,539 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 33,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 10,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 35,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>15,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 6,55</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 11,89</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 3,8</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 2,06</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 10,58</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-10,42; 31,79</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 43,83</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-15,03; 14,54</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-25,78; 7,4</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 50,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-7,13</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-3,09</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-15,7%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-11,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-8,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; -1,76</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; 0,33</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 1,99</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 5,78</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-11,42; 3,06</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-24,02; -4,12</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-21,25; 0,76</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,5; 4,27</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; 15,66</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-23,72; 8,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>15,88%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-0,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 9,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 2,49</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 6,76</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 8,79</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 6,5</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 32,48</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; 11,48</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 33,68</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 39,85</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 23,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P18_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_6-Urba-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1434,7 +1434,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1536,7 +1536,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1756,7 +1756,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1870,7 +1870,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
